--- a/doc/grille-pointage.xlsx
+++ b/doc/grille-pointage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvanross/sources/log430/LOG430-STM/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB2D88F-6C7C-D14A-891F-CF3CA1075A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755BA5CF-F831-184E-89F7-BE3849DF4FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1160" windowWidth="38400" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>Total</t>
   </si>
@@ -221,9 +221,6 @@
     <t xml:space="preserve">   Vues allocation</t>
   </si>
   <si>
-    <t>OA-1. Faciliter le recrutement des nouveaux chargés de laboratoire.</t>
-  </si>
-  <si>
     <t>Déduction total</t>
   </si>
   <si>
@@ -263,33 +260,6 @@
     <t>CU02 - Veux pouvoir mettre le chaos dans les microservices</t>
   </si>
   <si>
-    <t>CU03 -</t>
-  </si>
-  <si>
-    <t>CU04 -</t>
-  </si>
-  <si>
-    <t>CU05 -</t>
-  </si>
-  <si>
-    <t>CU06 -</t>
-  </si>
-  <si>
-    <t>CU07 -</t>
-  </si>
-  <si>
-    <t>CU08 -</t>
-  </si>
-  <si>
-    <t>CU09 -</t>
-  </si>
-  <si>
-    <t>CU010 -</t>
-  </si>
-  <si>
-    <t>OA-2. Validez si le transport par autobus est toujours plus rapide, peu importe l'heure de la journée</t>
-  </si>
-  <si>
     <t>CU01 - Veut comparer les temps de trajet</t>
   </si>
   <si>
@@ -302,20 +272,50 @@
     <t>Sera ajusté tout au long de la session</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>50% Évaluation par les paires</t>
   </si>
   <si>
     <t>DÉMONSTRATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OA1 - Faciliter le recrutement des nouveaux chargés de laboratoire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OA2 - Validez si le transport par autobus est toujours plus rapide, peu importe l'heure de la journée</t>
+  </si>
+  <si>
+    <t>CU03 - Comparer l’impact écologique de divers trajets en autobus et en auto</t>
+  </si>
+  <si>
+    <t>CU04 - service d’authentification Acteurs et systèmes</t>
+  </si>
+  <si>
+    <t>CU05 - Notification administrateur</t>
+  </si>
+  <si>
+    <t>CU06 - Veux pouvoir récupérer le temps de trajets d’un service externe</t>
+  </si>
+  <si>
+    <t>CU07 - Partager une comparaison de trajets</t>
+  </si>
+  <si>
+    <t>CU08 - Sauvegarder les trajets favoris</t>
+  </si>
+  <si>
+    <t>CU09 - Veux pouvoir récupérer le temps de trajet de STM</t>
+  </si>
+  <si>
+    <t>CU10 - Veux démontrer l’impact de la météo</t>
+  </si>
+  <si>
+    <t>Nom étudiants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -486,12 +486,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -619,7 +613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -843,37 +837,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -882,7 +845,7 @@
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1014,7 +977,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1050,50 +1013,50 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1103,10 +1066,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1136,8 +1096,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1150,7 +1110,7 @@
     <xf numFmtId="2" fontId="23" fillId="10" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1193,21 +1153,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1215,6 +1160,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1441,8 +1392,8 @@
   </sheetPr>
   <dimension ref="B1:AG825"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1458,7 +1409,7 @@
   <sheetData>
     <row r="1" spans="2:31" ht="23.25" customHeight="1">
       <c r="B1" s="61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -1491,16 +1442,16 @@
         <v>33</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D2" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="90" t="s">
-        <v>53</v>
-      </c>
       <c r="F2" s="52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="11"/>
@@ -1525,26 +1476,26 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="2:31" ht="23.25" customHeight="1">
-      <c r="B3" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="98">
+      <c r="B3" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="97">
         <v>1</v>
       </c>
-      <c r="D3" s="94">
+      <c r="D3" s="93">
         <f t="shared" ref="D3:D8" si="0">+$C$68</f>
         <v>0</v>
       </c>
-      <c r="E3" s="95">
+      <c r="E3" s="94">
         <f>(100%-C3)*D3*50%</f>
         <v>0</v>
       </c>
-      <c r="F3" s="96">
+      <c r="F3" s="95">
         <f>+D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88"/>
       <c r="I3" s="55"/>
       <c r="J3" s="55"/>
       <c r="K3" s="55"/>
@@ -1566,21 +1517,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="2:31" ht="23.25" customHeight="1">
-      <c r="B4" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="98">
+      <c r="B4" s="96"/>
+      <c r="C4" s="97">
         <v>1</v>
       </c>
-      <c r="D4" s="94">
+      <c r="D4" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="95">
+      <c r="E4" s="94">
         <f t="shared" ref="E4:E8" si="1">(100%-C4)*D4*50%</f>
         <v>0</v>
       </c>
-      <c r="F4" s="96">
+      <c r="F4" s="95">
         <f t="shared" ref="F4:F8" si="2">+D4-E4</f>
         <v>0</v>
       </c>
@@ -1607,21 +1556,19 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="2:31" ht="23.25" customHeight="1">
-      <c r="B5" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="98">
+      <c r="B5" s="96"/>
+      <c r="C5" s="97">
         <v>1</v>
       </c>
-      <c r="D5" s="94">
+      <c r="D5" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="95">
+      <c r="E5" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F5" s="96">
+      <c r="F5" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1648,21 +1595,19 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="2:31" ht="23.25" customHeight="1">
-      <c r="B6" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="98">
+      <c r="B6" s="96"/>
+      <c r="C6" s="97">
         <v>1</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="95">
+      <c r="E6" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F6" s="96">
+      <c r="F6" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1689,21 +1634,19 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="2:31" ht="23.25" customHeight="1">
-      <c r="B7" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="98">
+      <c r="B7" s="96"/>
+      <c r="C7" s="97">
         <v>1</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="95">
+      <c r="E7" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7" s="96">
+      <c r="F7" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1730,21 +1673,19 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="2:31" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B8" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="98">
+      <c r="B8" s="96"/>
+      <c r="C8" s="97">
         <v>1</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="95">
+      <c r="E8" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1775,16 +1716,14 @@
       <c r="C9" s="28"/>
       <c r="D9" s="29"/>
       <c r="E9" s="51"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="113" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="115"/>
+      <c r="F9" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="109"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1802,25 +1741,23 @@
     </row>
     <row r="10" spans="2:31" ht="27" customHeight="1" thickBot="1">
       <c r="B10" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="110" t="s">
+      <c r="D10" s="110"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="111"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="110" t="s">
+      <c r="G10" s="110"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="111"/>
-      <c r="M10" s="112"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="111"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1844,7 +1781,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>0</v>
@@ -1890,31 +1827,31 @@
     </row>
     <row r="12" spans="2:31" ht="16">
       <c r="B12" s="66" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C12" s="38">
         <v>3</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="93" t="e">
-        <f>+D12*C12+D12*C12*#REF!</f>
-        <v>#REF!</v>
+      <c r="D12" s="98"/>
+      <c r="E12" s="92">
+        <f>+C12*D12</f>
+        <v>0</v>
       </c>
       <c r="F12" s="38">
         <v>2</v>
       </c>
-      <c r="G12" s="101"/>
-      <c r="H12" s="56" t="e">
-        <f>+G12*F12+G12*F12*#REF!</f>
-        <v>#REF!</v>
+      <c r="G12" s="100"/>
+      <c r="H12" s="56">
+        <f>+G12*F12</f>
+        <v>0</v>
       </c>
       <c r="I12" s="38">
         <v>1</v>
       </c>
-      <c r="J12" s="101"/>
-      <c r="K12" s="56" t="e">
-        <f>+J12*I12+J12*I12*#REF!</f>
-        <v>#REF!</v>
+      <c r="J12" s="100"/>
+      <c r="K12" s="56">
+        <f>+J12*I12</f>
+        <v>0</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1938,32 +1875,32 @@
       <c r="AE12" s="3"/>
     </row>
     <row r="13" spans="2:31" ht="16">
-      <c r="B13" s="92" t="s">
-        <v>63</v>
+      <c r="B13" s="91" t="s">
+        <v>61</v>
       </c>
       <c r="C13" s="14">
         <v>3</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="93" t="e">
-        <f>+D13*C13+D13*C13*#REF!</f>
-        <v>#REF!</v>
+      <c r="D13" s="98"/>
+      <c r="E13" s="92">
+        <f>+C13*D13</f>
+        <v>0</v>
       </c>
       <c r="F13" s="14">
         <v>2</v>
       </c>
-      <c r="G13" s="102"/>
-      <c r="H13" s="56" t="e">
-        <f>+G13*F13+G13*F13*#REF!</f>
-        <v>#REF!</v>
+      <c r="G13" s="101"/>
+      <c r="H13" s="56">
+        <f t="shared" ref="H13:H23" si="3">+G13*F13</f>
+        <v>0</v>
       </c>
       <c r="I13" s="14">
         <v>1</v>
       </c>
-      <c r="J13" s="102"/>
-      <c r="K13" s="56" t="e">
-        <f>+J13*I13+J13*I13*#REF!</f>
-        <v>#REF!</v>
+      <c r="J13" s="101"/>
+      <c r="K13" s="56">
+        <f t="shared" ref="K13:K23" si="4">+J13*I13</f>
+        <v>0</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -1987,32 +1924,32 @@
       <c r="AE13" s="3"/>
     </row>
     <row r="14" spans="2:31" ht="16">
-      <c r="B14" s="91" t="s">
-        <v>64</v>
+      <c r="B14" s="90" t="s">
+        <v>54</v>
       </c>
       <c r="C14" s="14">
         <v>3</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="93" t="e">
-        <f>+D14*C14+D14*C14*#REF!</f>
-        <v>#REF!</v>
+      <c r="D14" s="98"/>
+      <c r="E14" s="92">
+        <f>+C14*D14</f>
+        <v>0</v>
       </c>
       <c r="F14" s="14">
         <v>2</v>
       </c>
-      <c r="G14" s="102"/>
-      <c r="H14" s="56" t="e">
-        <f>+G14*F14+G14*F14*#REF!</f>
-        <v>#REF!</v>
+      <c r="G14" s="101"/>
+      <c r="H14" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I14" s="14">
         <v>1</v>
       </c>
-      <c r="J14" s="102"/>
-      <c r="K14" s="56" t="e">
-        <f>+J14*I14+J14*I14*#REF!</f>
-        <v>#REF!</v>
+      <c r="J14" s="101"/>
+      <c r="K14" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2036,32 +1973,32 @@
       <c r="AE14" s="3"/>
     </row>
     <row r="15" spans="2:31" ht="16">
-      <c r="B15" s="91" t="s">
-        <v>54</v>
+      <c r="B15" s="90" t="s">
+        <v>53</v>
       </c>
       <c r="C15" s="14">
         <v>3</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="93" t="e">
-        <f>+D15*C15+D15*C15*#REF!</f>
-        <v>#REF!</v>
+      <c r="D15" s="98"/>
+      <c r="E15" s="92">
+        <f>+C15*D15</f>
+        <v>0</v>
       </c>
       <c r="F15" s="14">
         <v>2</v>
       </c>
-      <c r="G15" s="102"/>
-      <c r="H15" s="56" t="e">
-        <f>+G15*F15+G15*F15*#REF!</f>
-        <v>#REF!</v>
+      <c r="G15" s="101"/>
+      <c r="H15" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I15" s="14">
         <v>1</v>
       </c>
-      <c r="J15" s="102"/>
-      <c r="K15" s="56" t="e">
-        <f>+J15*I15+J15*I15*#REF!</f>
-        <v>#REF!</v>
+      <c r="J15" s="101"/>
+      <c r="K15" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2085,32 +2022,32 @@
       <c r="AE15" s="3"/>
     </row>
     <row r="16" spans="2:31" ht="16">
-      <c r="B16" s="91" t="s">
-        <v>55</v>
+      <c r="B16" s="90" t="s">
+        <v>62</v>
       </c>
       <c r="C16" s="14">
         <v>3</v>
       </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="93" t="e">
-        <f>+D16*C16+D16*C16*#REF!</f>
-        <v>#REF!</v>
+      <c r="D16" s="98"/>
+      <c r="E16" s="92">
+        <f>+C16*D16</f>
+        <v>0</v>
       </c>
       <c r="F16" s="14">
         <v>2</v>
       </c>
-      <c r="G16" s="102"/>
-      <c r="H16" s="56" t="e">
-        <f>+G16*F16+G16*F16*#REF!</f>
-        <v>#REF!</v>
+      <c r="G16" s="101"/>
+      <c r="H16" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I16" s="14">
         <v>1</v>
       </c>
-      <c r="J16" s="102"/>
-      <c r="K16" s="56" t="e">
-        <f>+J16*I16+J16*I16*#REF!</f>
-        <v>#REF!</v>
+      <c r="J16" s="101"/>
+      <c r="K16" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -2134,32 +2071,32 @@
       <c r="AE16" s="3"/>
     </row>
     <row r="17" spans="2:31" ht="16">
-      <c r="B17" s="91" t="s">
-        <v>56</v>
+      <c r="B17" s="90" t="s">
+        <v>63</v>
       </c>
       <c r="C17" s="14">
         <v>3</v>
       </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="93" t="e">
-        <f>+D17*C17+D17*C17*#REF!</f>
-        <v>#REF!</v>
+      <c r="D17" s="98"/>
+      <c r="E17" s="92">
+        <f t="shared" ref="E17:E23" si="5">+C17*D17</f>
+        <v>0</v>
       </c>
       <c r="F17" s="14">
         <v>2</v>
       </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="56" t="e">
-        <f>+G17*F17+G17*F17*#REF!</f>
-        <v>#REF!</v>
+      <c r="G17" s="101"/>
+      <c r="H17" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I17" s="14">
         <v>1</v>
       </c>
-      <c r="J17" s="102"/>
-      <c r="K17" s="56" t="e">
-        <f>+J17*I17+J17*I17*#REF!</f>
-        <v>#REF!</v>
+      <c r="J17" s="101"/>
+      <c r="K17" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -2183,32 +2120,32 @@
       <c r="AE17" s="3"/>
     </row>
     <row r="18" spans="2:31" ht="16">
-      <c r="B18" s="91" t="s">
-        <v>57</v>
+      <c r="B18" s="90" t="s">
+        <v>64</v>
       </c>
       <c r="C18" s="14">
         <v>3</v>
       </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="93" t="e">
-        <f>+D18*C18+D18*C18*#REF!</f>
-        <v>#REF!</v>
+      <c r="D18" s="98"/>
+      <c r="E18" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F18" s="14">
         <v>2</v>
       </c>
-      <c r="G18" s="102"/>
-      <c r="H18" s="56" t="e">
-        <f>+G18*F18+G18*F18*#REF!</f>
-        <v>#REF!</v>
+      <c r="G18" s="101"/>
+      <c r="H18" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I18" s="14">
         <v>1</v>
       </c>
-      <c r="J18" s="102"/>
-      <c r="K18" s="56" t="e">
-        <f>+J18*I18+J18*I18*#REF!</f>
-        <v>#REF!</v>
+      <c r="J18" s="101"/>
+      <c r="K18" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -2232,32 +2169,32 @@
       <c r="AE18" s="3"/>
     </row>
     <row r="19" spans="2:31" ht="16">
-      <c r="B19" s="91" t="s">
-        <v>58</v>
+      <c r="B19" s="90" t="s">
+        <v>65</v>
       </c>
       <c r="C19" s="14">
         <v>3</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="93" t="e">
-        <f>+D19*C19+D19*C19*#REF!</f>
-        <v>#REF!</v>
+      <c r="D19" s="98"/>
+      <c r="E19" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F19" s="14">
         <v>2</v>
       </c>
-      <c r="G19" s="102"/>
-      <c r="H19" s="56" t="e">
-        <f>+G19*F19+G19*F19*#REF!</f>
-        <v>#REF!</v>
+      <c r="G19" s="101"/>
+      <c r="H19" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I19" s="14">
         <v>1</v>
       </c>
-      <c r="J19" s="102"/>
-      <c r="K19" s="56" t="e">
-        <f>+J19*I19+J19*I19*#REF!</f>
-        <v>#REF!</v>
+      <c r="J19" s="101"/>
+      <c r="K19" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -2281,32 +2218,32 @@
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="2:31" ht="16">
-      <c r="B20" s="91" t="s">
-        <v>59</v>
+      <c r="B20" s="90" t="s">
+        <v>66</v>
       </c>
       <c r="C20" s="14">
         <v>3</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="93" t="e">
-        <f>+D20*C20+D20*C20*#REF!</f>
-        <v>#REF!</v>
+      <c r="D20" s="98"/>
+      <c r="E20" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F20" s="14">
         <v>2</v>
       </c>
-      <c r="G20" s="102"/>
-      <c r="H20" s="56" t="e">
-        <f>+G20*F20+G20*F20*#REF!</f>
-        <v>#REF!</v>
+      <c r="G20" s="101"/>
+      <c r="H20" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I20" s="14">
         <v>1</v>
       </c>
-      <c r="J20" s="102"/>
-      <c r="K20" s="56" t="e">
-        <f>+J20*I20+J20*I20*#REF!</f>
-        <v>#REF!</v>
+      <c r="J20" s="101"/>
+      <c r="K20" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2330,32 +2267,32 @@
       <c r="AE20" s="3"/>
     </row>
     <row r="21" spans="2:31" ht="16">
-      <c r="B21" s="91" t="s">
-        <v>60</v>
+      <c r="B21" s="90" t="s">
+        <v>67</v>
       </c>
       <c r="C21" s="14">
         <v>3</v>
       </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="93" t="e">
-        <f>+D21*C21+D21*C21*#REF!</f>
-        <v>#REF!</v>
+      <c r="D21" s="98"/>
+      <c r="E21" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F21" s="14">
         <v>2</v>
       </c>
-      <c r="G21" s="102"/>
-      <c r="H21" s="56" t="e">
-        <f>+G21*F21+G21*F21*#REF!</f>
-        <v>#REF!</v>
+      <c r="G21" s="101"/>
+      <c r="H21" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I21" s="14">
         <v>1</v>
       </c>
-      <c r="J21" s="102"/>
-      <c r="K21" s="56" t="e">
-        <f>+J21*I21+J21*I21*#REF!</f>
-        <v>#REF!</v>
+      <c r="J21" s="101"/>
+      <c r="K21" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -2379,32 +2316,32 @@
       <c r="AE21" s="3"/>
     </row>
     <row r="22" spans="2:31" ht="16">
-      <c r="B22" s="91" t="s">
-        <v>61</v>
+      <c r="B22" s="90" t="s">
+        <v>68</v>
       </c>
       <c r="C22" s="14">
         <v>3</v>
       </c>
-      <c r="D22" s="99"/>
-      <c r="E22" s="93" t="e">
-        <f>+D22*C22+D22*C22*#REF!</f>
-        <v>#REF!</v>
+      <c r="D22" s="98"/>
+      <c r="E22" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F22" s="14">
         <v>2</v>
       </c>
-      <c r="G22" s="102"/>
-      <c r="H22" s="56" t="e">
-        <f>+G22*F22+G22*F22*#REF!</f>
-        <v>#REF!</v>
+      <c r="G22" s="101"/>
+      <c r="H22" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I22" s="14">
         <v>1</v>
       </c>
-      <c r="J22" s="102"/>
-      <c r="K22" s="56" t="e">
-        <f>+J22*I22+J22*I22*#REF!</f>
-        <v>#REF!</v>
+      <c r="J22" s="101"/>
+      <c r="K22" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -2428,32 +2365,32 @@
       <c r="AE22" s="3"/>
     </row>
     <row r="23" spans="2:31" ht="16">
-      <c r="B23" s="91" t="s">
-        <v>62</v>
+      <c r="B23" s="90" t="s">
+        <v>69</v>
       </c>
       <c r="C23" s="14">
         <v>3</v>
       </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="93" t="e">
-        <f>+D23*C23+D23*C23*#REF!</f>
-        <v>#REF!</v>
+      <c r="D23" s="98"/>
+      <c r="E23" s="92">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F23" s="14">
         <v>2</v>
       </c>
-      <c r="G23" s="102"/>
-      <c r="H23" s="56" t="e">
-        <f>+G23*F23+G23*F23*#REF!</f>
-        <v>#REF!</v>
+      <c r="G23" s="101"/>
+      <c r="H23" s="56">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I23" s="14">
         <v>1</v>
       </c>
-      <c r="J23" s="102"/>
-      <c r="K23" s="56" t="e">
-        <f>+J23*I23+J23*I23*#REF!</f>
-        <v>#REF!</v>
+      <c r="J23" s="101"/>
+      <c r="K23" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -2481,13 +2418,13 @@
         <v>4</v>
       </c>
       <c r="C24" s="22"/>
-      <c r="D24" s="100"/>
+      <c r="D24" s="99"/>
       <c r="E24" s="25"/>
       <c r="F24" s="24"/>
-      <c r="G24" s="103"/>
+      <c r="G24" s="102"/>
       <c r="H24" s="27"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="103"/>
+      <c r="J24" s="102"/>
       <c r="K24" s="59"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2517,26 +2454,26 @@
       <c r="C25" s="14">
         <v>3</v>
       </c>
-      <c r="D25" s="99"/>
-      <c r="E25" s="93" t="e">
-        <f>+D25*C25+D25*C25*#REF!</f>
-        <v>#REF!</v>
+      <c r="D25" s="98"/>
+      <c r="E25" s="92">
+        <f t="shared" ref="E25:E28" si="6">+C25*D25</f>
+        <v>0</v>
       </c>
       <c r="F25" s="14">
         <v>2</v>
       </c>
-      <c r="G25" s="104"/>
-      <c r="H25" s="56" t="e">
-        <f>+G25*F25+G25*F25*#REF!</f>
-        <v>#REF!</v>
+      <c r="G25" s="103"/>
+      <c r="H25" s="56">
+        <f t="shared" ref="H25:H28" si="7">+G25*F25</f>
+        <v>0</v>
       </c>
       <c r="I25" s="23">
         <v>1</v>
       </c>
-      <c r="J25" s="104"/>
-      <c r="K25" s="56" t="e">
-        <f>+J25*I25+J25*I25*#REF!</f>
-        <v>#REF!</v>
+      <c r="J25" s="103"/>
+      <c r="K25" s="56">
+        <f t="shared" ref="K25:K28" si="8">+J25*I25</f>
+        <v>0</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -2566,26 +2503,26 @@
       <c r="C26" s="14">
         <v>3</v>
       </c>
-      <c r="D26" s="99"/>
-      <c r="E26" s="93" t="e">
-        <f>+D26*C26+D26*C26*#REF!</f>
-        <v>#REF!</v>
+      <c r="D26" s="98"/>
+      <c r="E26" s="92">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="F26" s="14">
         <v>2</v>
       </c>
-      <c r="G26" s="102"/>
-      <c r="H26" s="56" t="e">
-        <f>+G26*F26+G26*F26*#REF!</f>
-        <v>#REF!</v>
+      <c r="G26" s="101"/>
+      <c r="H26" s="56">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I26" s="14">
         <v>1</v>
       </c>
-      <c r="J26" s="102"/>
-      <c r="K26" s="56" t="e">
-        <f>+J26*I26+J26*I26*#REF!</f>
-        <v>#REF!</v>
+      <c r="J26" s="101"/>
+      <c r="K26" s="56">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -2615,26 +2552,26 @@
       <c r="C27" s="14">
         <v>3</v>
       </c>
-      <c r="D27" s="99"/>
-      <c r="E27" s="93" t="e">
-        <f>+D27*C27+D27*C27*#REF!</f>
-        <v>#REF!</v>
+      <c r="D27" s="98"/>
+      <c r="E27" s="92">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="F27" s="14">
         <v>2</v>
       </c>
-      <c r="G27" s="102"/>
-      <c r="H27" s="56" t="e">
-        <f>+G27*F27+G27*F27*#REF!</f>
-        <v>#REF!</v>
+      <c r="G27" s="101"/>
+      <c r="H27" s="56">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I27" s="14">
         <v>1</v>
       </c>
-      <c r="J27" s="102"/>
-      <c r="K27" s="56" t="e">
-        <f>+J27*I27+J27*I27*#REF!</f>
-        <v>#REF!</v>
+      <c r="J27" s="101"/>
+      <c r="K27" s="56">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2664,26 +2601,26 @@
       <c r="C28" s="39">
         <v>3</v>
       </c>
-      <c r="D28" s="99"/>
-      <c r="E28" s="93" t="e">
-        <f>+D28*C28+D28*C28*#REF!</f>
-        <v>#REF!</v>
+      <c r="D28" s="98"/>
+      <c r="E28" s="92">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="F28" s="39">
         <v>2</v>
       </c>
-      <c r="G28" s="105"/>
-      <c r="H28" s="56" t="e">
-        <f>+G28*F28+G28*F28*#REF!</f>
-        <v>#REF!</v>
+      <c r="G28" s="104"/>
+      <c r="H28" s="56">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I28" s="39">
         <v>1</v>
       </c>
-      <c r="J28" s="105"/>
-      <c r="K28" s="56" t="e">
-        <f>+J28*I28+J28*I28*#REF!</f>
-        <v>#REF!</v>
+      <c r="J28" s="104"/>
+      <c r="K28" s="56">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -2711,13 +2648,13 @@
         <v>5</v>
       </c>
       <c r="C29" s="22"/>
-      <c r="D29" s="100"/>
+      <c r="D29" s="99"/>
       <c r="E29" s="25"/>
       <c r="F29" s="24"/>
-      <c r="G29" s="103"/>
+      <c r="G29" s="102"/>
       <c r="H29" s="27"/>
       <c r="I29" s="26"/>
-      <c r="J29" s="103"/>
+      <c r="J29" s="102"/>
       <c r="K29" s="59"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -2747,26 +2684,26 @@
       <c r="C30" s="14">
         <v>3</v>
       </c>
-      <c r="D30" s="99"/>
-      <c r="E30" s="93" t="e">
-        <f>+D30*C30+D30*C30*#REF!</f>
-        <v>#REF!</v>
+      <c r="D30" s="98"/>
+      <c r="E30" s="92">
+        <f t="shared" ref="E30:E33" si="9">+C30*D30</f>
+        <v>0</v>
       </c>
       <c r="F30" s="14">
         <v>2</v>
       </c>
-      <c r="G30" s="104"/>
-      <c r="H30" s="56" t="e">
-        <f>+G30*F30+G30*F30*#REF!</f>
-        <v>#REF!</v>
+      <c r="G30" s="103"/>
+      <c r="H30" s="56">
+        <f t="shared" ref="H30:H33" si="10">+G30*F30</f>
+        <v>0</v>
       </c>
       <c r="I30" s="23">
         <v>1</v>
       </c>
-      <c r="J30" s="104"/>
-      <c r="K30" s="56" t="e">
-        <f>+J30*I30+J30*I30*#REF!</f>
-        <v>#REF!</v>
+      <c r="J30" s="103"/>
+      <c r="K30" s="56">
+        <f t="shared" ref="K30:K33" si="11">+J30*I30</f>
+        <v>0</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -2796,26 +2733,26 @@
       <c r="C31" s="14">
         <v>3</v>
       </c>
-      <c r="D31" s="99"/>
-      <c r="E31" s="93" t="e">
-        <f>+D31*C31+D31*C31*#REF!</f>
-        <v>#REF!</v>
+      <c r="D31" s="98"/>
+      <c r="E31" s="92">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F31" s="14">
         <v>2</v>
       </c>
-      <c r="G31" s="102"/>
-      <c r="H31" s="56" t="e">
-        <f>+G31*F31+G31*F31*#REF!</f>
-        <v>#REF!</v>
+      <c r="G31" s="101"/>
+      <c r="H31" s="56">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="I31" s="14">
         <v>1</v>
       </c>
-      <c r="J31" s="102"/>
-      <c r="K31" s="56" t="e">
-        <f>+J31*I31+J31*I31*#REF!</f>
-        <v>#REF!</v>
+      <c r="J31" s="101"/>
+      <c r="K31" s="56">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -2845,26 +2782,26 @@
       <c r="C32" s="14">
         <v>3</v>
       </c>
-      <c r="D32" s="99"/>
-      <c r="E32" s="93" t="e">
-        <f>+D32*C32+D32*C32*#REF!</f>
-        <v>#REF!</v>
+      <c r="D32" s="98"/>
+      <c r="E32" s="92">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F32" s="14">
         <v>2</v>
       </c>
-      <c r="G32" s="102"/>
-      <c r="H32" s="56" t="e">
-        <f>+G32*F32+G32*F32*#REF!</f>
-        <v>#REF!</v>
+      <c r="G32" s="101"/>
+      <c r="H32" s="56">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="I32" s="14">
         <v>1</v>
       </c>
-      <c r="J32" s="102"/>
-      <c r="K32" s="56" t="e">
-        <f>+J32*I32+J32*I32*#REF!</f>
-        <v>#REF!</v>
+      <c r="J32" s="101"/>
+      <c r="K32" s="56">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="6"/>
@@ -2894,26 +2831,26 @@
       <c r="C33" s="14">
         <v>3</v>
       </c>
-      <c r="D33" s="99"/>
-      <c r="E33" s="93" t="e">
-        <f>+D33*C33+D33*C33*#REF!</f>
-        <v>#REF!</v>
+      <c r="D33" s="98"/>
+      <c r="E33" s="92">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F33" s="14">
         <v>2</v>
       </c>
-      <c r="G33" s="102"/>
-      <c r="H33" s="56" t="e">
-        <f>+G33*F33+G33*F33*#REF!</f>
-        <v>#REF!</v>
+      <c r="G33" s="101"/>
+      <c r="H33" s="56">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="I33" s="14">
         <v>1</v>
       </c>
-      <c r="J33" s="102"/>
-      <c r="K33" s="56" t="e">
-        <f>+J33*I33+J33*I33*#REF!</f>
-        <v>#REF!</v>
+      <c r="J33" s="101"/>
+      <c r="K33" s="56">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -2941,13 +2878,13 @@
         <v>10</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="100"/>
+      <c r="D34" s="99"/>
       <c r="E34" s="25"/>
       <c r="F34" s="24"/>
-      <c r="G34" s="103"/>
+      <c r="G34" s="102"/>
       <c r="H34" s="27"/>
       <c r="I34" s="26"/>
-      <c r="J34" s="103"/>
+      <c r="J34" s="102"/>
       <c r="K34" s="59"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -2977,26 +2914,26 @@
       <c r="C35" s="14">
         <v>3</v>
       </c>
-      <c r="D35" s="99"/>
-      <c r="E35" s="93" t="e">
-        <f>+D35*C35+D35*C35*#REF!</f>
-        <v>#REF!</v>
+      <c r="D35" s="98"/>
+      <c r="E35" s="92">
+        <f t="shared" ref="E35:E36" si="12">+C35*D35</f>
+        <v>0</v>
       </c>
       <c r="F35" s="14">
         <v>2</v>
       </c>
-      <c r="G35" s="102"/>
-      <c r="H35" s="56" t="e">
-        <f>+G35*F35+G35*F35*#REF!</f>
-        <v>#REF!</v>
+      <c r="G35" s="101"/>
+      <c r="H35" s="56">
+        <f t="shared" ref="H35:H36" si="13">+G35*F35</f>
+        <v>0</v>
       </c>
       <c r="I35" s="14">
         <v>1</v>
       </c>
-      <c r="J35" s="102"/>
-      <c r="K35" s="56" t="e">
-        <f>+J35*I35+J35*I35*#REF!</f>
-        <v>#REF!</v>
+      <c r="J35" s="101"/>
+      <c r="K35" s="56">
+        <f t="shared" ref="K35:K50" si="14">+J35*I35</f>
+        <v>0</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -3026,26 +2963,26 @@
       <c r="C36" s="14">
         <v>3</v>
       </c>
-      <c r="D36" s="99"/>
-      <c r="E36" s="93" t="e">
-        <f>+D36*C36+D36*C36*#REF!</f>
-        <v>#REF!</v>
+      <c r="D36" s="98"/>
+      <c r="E36" s="92">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="F36" s="14">
         <v>2</v>
       </c>
-      <c r="G36" s="102"/>
-      <c r="H36" s="56" t="e">
-        <f>+G36*F36+G36*F36*#REF!</f>
-        <v>#REF!</v>
+      <c r="G36" s="101"/>
+      <c r="H36" s="56">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="I36" s="14">
         <v>1</v>
       </c>
-      <c r="J36" s="102"/>
-      <c r="K36" s="56" t="e">
-        <f>+J36*I36+J36*I36*#REF!</f>
-        <v>#REF!</v>
+      <c r="J36" s="101"/>
+      <c r="K36" s="56">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -3073,13 +3010,13 @@
         <v>13</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="100"/>
+      <c r="D37" s="99"/>
       <c r="E37" s="25"/>
       <c r="F37" s="24"/>
-      <c r="G37" s="103"/>
+      <c r="G37" s="102"/>
       <c r="H37" s="27"/>
       <c r="I37" s="26"/>
-      <c r="J37" s="103"/>
+      <c r="J37" s="102"/>
       <c r="K37" s="59"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -3109,26 +3046,26 @@
       <c r="C38" s="14">
         <v>3</v>
       </c>
-      <c r="D38" s="99"/>
-      <c r="E38" s="93" t="e">
-        <f>+D38*C38+D38*C38*#REF!</f>
-        <v>#REF!</v>
+      <c r="D38" s="98"/>
+      <c r="E38" s="92">
+        <f t="shared" ref="E38:E41" si="15">+C38*D38</f>
+        <v>0</v>
       </c>
       <c r="F38" s="14">
         <v>2</v>
       </c>
-      <c r="G38" s="102"/>
-      <c r="H38" s="56" t="e">
-        <f>+G38*F38+G38*F38*#REF!</f>
-        <v>#REF!</v>
+      <c r="G38" s="101"/>
+      <c r="H38" s="56">
+        <f t="shared" ref="H38:H41" si="16">+G38*F38</f>
+        <v>0</v>
       </c>
       <c r="I38" s="14">
         <v>1</v>
       </c>
-      <c r="J38" s="102"/>
-      <c r="K38" s="56" t="e">
-        <f>+J38*I38+J38*I38*#REF!</f>
-        <v>#REF!</v>
+      <c r="J38" s="101"/>
+      <c r="K38" s="56">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -3158,26 +3095,26 @@
       <c r="C39" s="14">
         <v>3</v>
       </c>
-      <c r="D39" s="99"/>
-      <c r="E39" s="93" t="e">
-        <f>+D39*C39+D39*C39*#REF!</f>
-        <v>#REF!</v>
+      <c r="D39" s="98"/>
+      <c r="E39" s="92">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="F39" s="14">
         <v>2</v>
       </c>
-      <c r="G39" s="102"/>
-      <c r="H39" s="56" t="e">
-        <f>+G39*F39+G39*F39*#REF!</f>
-        <v>#REF!</v>
+      <c r="G39" s="101"/>
+      <c r="H39" s="56">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="I39" s="14">
         <v>1</v>
       </c>
-      <c r="J39" s="102"/>
-      <c r="K39" s="56" t="e">
-        <f>+J39*I39+J39*I39*#REF!</f>
-        <v>#REF!</v>
+      <c r="J39" s="101"/>
+      <c r="K39" s="56">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -3207,26 +3144,26 @@
       <c r="C40" s="14">
         <v>3</v>
       </c>
-      <c r="D40" s="99"/>
-      <c r="E40" s="93" t="e">
-        <f>+D40*C40+D40*C40*#REF!</f>
-        <v>#REF!</v>
+      <c r="D40" s="98"/>
+      <c r="E40" s="92">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="F40" s="14">
         <v>2</v>
       </c>
-      <c r="G40" s="102"/>
-      <c r="H40" s="56" t="e">
-        <f>+G40*F40+G40*F40*#REF!</f>
-        <v>#REF!</v>
+      <c r="G40" s="101"/>
+      <c r="H40" s="56">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="I40" s="14">
         <v>1</v>
       </c>
-      <c r="J40" s="102"/>
-      <c r="K40" s="56" t="e">
-        <f>+J40*I40+J40*I40*#REF!</f>
-        <v>#REF!</v>
+      <c r="J40" s="101"/>
+      <c r="K40" s="56">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -3256,26 +3193,26 @@
       <c r="C41" s="14">
         <v>3</v>
       </c>
-      <c r="D41" s="99"/>
-      <c r="E41" s="93" t="e">
-        <f>+D41*C41+D41*C41*#REF!</f>
-        <v>#REF!</v>
+      <c r="D41" s="98"/>
+      <c r="E41" s="92">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="F41" s="14">
         <v>2</v>
       </c>
-      <c r="G41" s="102"/>
-      <c r="H41" s="56" t="e">
-        <f>+G41*F41+G41*F41*#REF!</f>
-        <v>#REF!</v>
+      <c r="G41" s="101"/>
+      <c r="H41" s="56">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="I41" s="14">
         <v>1</v>
       </c>
-      <c r="J41" s="102"/>
-      <c r="K41" s="56" t="e">
-        <f>+J41*I41+J41*I41*#REF!</f>
-        <v>#REF!</v>
+      <c r="J41" s="101"/>
+      <c r="K41" s="56">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -3303,13 +3240,13 @@
         <v>18</v>
       </c>
       <c r="C42" s="22"/>
-      <c r="D42" s="100"/>
+      <c r="D42" s="99"/>
       <c r="E42" s="25"/>
       <c r="F42" s="24"/>
-      <c r="G42" s="103"/>
+      <c r="G42" s="102"/>
       <c r="H42" s="27"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="103"/>
+      <c r="J42" s="102"/>
       <c r="K42" s="59"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -3339,26 +3276,26 @@
       <c r="C43" s="14">
         <v>3</v>
       </c>
-      <c r="D43" s="99"/>
-      <c r="E43" s="93" t="e">
-        <f>+D43*C43+D43*C43*#REF!</f>
-        <v>#REF!</v>
+      <c r="D43" s="98"/>
+      <c r="E43" s="92">
+        <f t="shared" ref="E43:E44" si="17">+C43*D43</f>
+        <v>0</v>
       </c>
       <c r="F43" s="14">
         <v>2</v>
       </c>
-      <c r="G43" s="102"/>
-      <c r="H43" s="56" t="e">
-        <f>+G43*F43+G43*F43*#REF!</f>
-        <v>#REF!</v>
+      <c r="G43" s="101"/>
+      <c r="H43" s="56">
+        <f t="shared" ref="H43:H44" si="18">+G43*F43</f>
+        <v>0</v>
       </c>
       <c r="I43" s="14">
         <v>1</v>
       </c>
-      <c r="J43" s="102"/>
-      <c r="K43" s="56" t="e">
-        <f>+J43*I43+J43*I43*#REF!</f>
-        <v>#REF!</v>
+      <c r="J43" s="101"/>
+      <c r="K43" s="56">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -3388,26 +3325,26 @@
       <c r="C44" s="14">
         <v>3</v>
       </c>
-      <c r="D44" s="99"/>
-      <c r="E44" s="93" t="e">
-        <f>+D44*C44+D44*C44*#REF!</f>
-        <v>#REF!</v>
+      <c r="D44" s="98"/>
+      <c r="E44" s="92">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="F44" s="14">
         <v>2</v>
       </c>
-      <c r="G44" s="102"/>
-      <c r="H44" s="56" t="e">
-        <f>+G44*F44+G44*F44*#REF!</f>
-        <v>#REF!</v>
+      <c r="G44" s="101"/>
+      <c r="H44" s="56">
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="I44" s="14">
         <v>1</v>
       </c>
-      <c r="J44" s="102"/>
-      <c r="K44" s="56" t="e">
-        <f>+J44*I44+J44*I44*#REF!</f>
-        <v>#REF!</v>
+      <c r="J44" s="101"/>
+      <c r="K44" s="56">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -3435,13 +3372,13 @@
         <v>21</v>
       </c>
       <c r="C45" s="22"/>
-      <c r="D45" s="100"/>
+      <c r="D45" s="99"/>
       <c r="E45" s="25"/>
       <c r="F45" s="24"/>
-      <c r="G45" s="103"/>
+      <c r="G45" s="102"/>
       <c r="H45" s="27"/>
       <c r="I45" s="26"/>
-      <c r="J45" s="103"/>
+      <c r="J45" s="102"/>
       <c r="K45" s="59"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -3471,26 +3408,26 @@
       <c r="C46" s="14">
         <v>3</v>
       </c>
-      <c r="D46" s="99"/>
-      <c r="E46" s="93" t="e">
-        <f>+D46*C46+D46*C46*#REF!</f>
-        <v>#REF!</v>
+      <c r="D46" s="98"/>
+      <c r="E46" s="92">
+        <f t="shared" ref="E46:E47" si="19">+C46*D46</f>
+        <v>0</v>
       </c>
       <c r="F46" s="14">
         <v>2</v>
       </c>
-      <c r="G46" s="102"/>
-      <c r="H46" s="56" t="e">
-        <f>+G46*F46+G46*F46*#REF!</f>
-        <v>#REF!</v>
+      <c r="G46" s="101"/>
+      <c r="H46" s="56">
+        <f t="shared" ref="H46:H47" si="20">+G46*F46</f>
+        <v>0</v>
       </c>
       <c r="I46" s="14">
         <v>1</v>
       </c>
-      <c r="J46" s="102"/>
-      <c r="K46" s="56" t="e">
-        <f>+J46*I46+J46*I46*#REF!</f>
-        <v>#REF!</v>
+      <c r="J46" s="101"/>
+      <c r="K46" s="56">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -3520,26 +3457,26 @@
       <c r="C47" s="39">
         <v>3</v>
       </c>
-      <c r="D47" s="99"/>
-      <c r="E47" s="93" t="e">
-        <f>+D47*C47+D47*C47*#REF!</f>
-        <v>#REF!</v>
+      <c r="D47" s="98"/>
+      <c r="E47" s="92">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="F47" s="39">
         <v>2</v>
       </c>
-      <c r="G47" s="105"/>
-      <c r="H47" s="56" t="e">
-        <f>+G47*F47+G47*F47*#REF!</f>
-        <v>#REF!</v>
+      <c r="G47" s="104"/>
+      <c r="H47" s="56">
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="I47" s="39">
         <v>1</v>
       </c>
-      <c r="J47" s="105"/>
-      <c r="K47" s="56" t="e">
-        <f>+J47*I47+J47*I47*#REF!</f>
-        <v>#REF!</v>
+      <c r="J47" s="104"/>
+      <c r="K47" s="56">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -3567,13 +3504,13 @@
         <v>23</v>
       </c>
       <c r="C48" s="22"/>
-      <c r="D48" s="100"/>
+      <c r="D48" s="99"/>
       <c r="E48" s="25"/>
       <c r="F48" s="24"/>
-      <c r="G48" s="103"/>
+      <c r="G48" s="102"/>
       <c r="H48" s="27"/>
       <c r="I48" s="26"/>
-      <c r="J48" s="103"/>
+      <c r="J48" s="102"/>
       <c r="K48" s="59"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -3603,26 +3540,26 @@
       <c r="C49" s="14">
         <v>3</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="93" t="e">
-        <f>+D49*C49+D49*C49*#REF!</f>
-        <v>#REF!</v>
+      <c r="D49" s="98"/>
+      <c r="E49" s="92">
+        <f t="shared" ref="E49:E50" si="21">+C49*D49</f>
+        <v>0</v>
       </c>
       <c r="F49" s="14">
         <v>2</v>
       </c>
-      <c r="G49" s="102"/>
-      <c r="H49" s="56" t="e">
-        <f>+G49*F49+G49*F49*#REF!</f>
-        <v>#REF!</v>
+      <c r="G49" s="101"/>
+      <c r="H49" s="56">
+        <f t="shared" ref="H49:H50" si="22">+G49*F49</f>
+        <v>0</v>
       </c>
       <c r="I49" s="14">
         <v>1</v>
       </c>
-      <c r="J49" s="102"/>
-      <c r="K49" s="56" t="e">
-        <f>+J49*I49+J49*I49*#REF!</f>
-        <v>#REF!</v>
+      <c r="J49" s="101"/>
+      <c r="K49" s="56">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -3652,26 +3589,26 @@
       <c r="C50" s="39">
         <v>3</v>
       </c>
-      <c r="D50" s="99"/>
-      <c r="E50" s="93" t="e">
-        <f>+D50*C50+D50*C50*#REF!</f>
-        <v>#REF!</v>
+      <c r="D50" s="98"/>
+      <c r="E50" s="92">
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="F50" s="39">
         <v>2</v>
       </c>
-      <c r="G50" s="102"/>
-      <c r="H50" s="56" t="e">
-        <f>+G50*F50+G50*F50*#REF!</f>
-        <v>#REF!</v>
+      <c r="G50" s="101"/>
+      <c r="H50" s="56">
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="I50" s="39">
         <v>1</v>
       </c>
-      <c r="J50" s="105"/>
-      <c r="K50" s="56" t="e">
-        <f>+J50*I50+J50*I50*#REF!</f>
-        <v>#REF!</v>
+      <c r="J50" s="104"/>
+      <c r="K50" s="56">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -3696,10 +3633,10 @@
     </row>
     <row r="51" spans="2:33" ht="17">
       <c r="B51" s="68" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C51" s="22"/>
-      <c r="D51" s="100"/>
+      <c r="D51" s="99"/>
       <c r="E51" s="57"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
@@ -3735,10 +3672,10 @@
       <c r="C52" s="23">
         <v>10</v>
       </c>
-      <c r="D52" s="99"/>
-      <c r="E52" s="93" t="e">
-        <f>+D52*C52+D52*C52*#REF!</f>
-        <v>#REF!</v>
+      <c r="D52" s="98"/>
+      <c r="E52" s="92">
+        <f t="shared" ref="E52:E54" si="23">+C52*D52</f>
+        <v>0</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
@@ -3774,10 +3711,10 @@
       <c r="C53" s="14">
         <v>10</v>
       </c>
-      <c r="D53" s="99"/>
-      <c r="E53" s="93" t="e">
-        <f>+D53*C53+D53*C53*#REF!</f>
-        <v>#REF!</v>
+      <c r="D53" s="98"/>
+      <c r="E53" s="92">
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
@@ -3813,10 +3750,10 @@
       <c r="C54" s="39">
         <v>10</v>
       </c>
-      <c r="D54" s="99"/>
-      <c r="E54" s="93" t="e">
-        <f>+D54*C54+D54*C54*#REF!</f>
-        <v>#REF!</v>
+      <c r="D54" s="98"/>
+      <c r="E54" s="92">
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
@@ -3849,12 +3786,11 @@
       <c r="B55" s="70"/>
       <c r="C55" s="30"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
+      <c r="E55" s="78">
+        <f>SUM(E12:E54)</f>
+        <v>0</v>
+      </c>
       <c r="F55" s="17"/>
-      <c r="G55" s="78" t="e">
-        <f>SUM(E12:E54)</f>
-        <v>#REF!</v>
-      </c>
       <c r="H55" s="7"/>
       <c r="I55" s="19"/>
       <c r="J55" s="31"/>
@@ -3916,13 +3852,13 @@
         <v>0.1</v>
       </c>
       <c r="D57" s="37"/>
-      <c r="E57" s="106">
+      <c r="E57" s="105">
         <v>0</v>
       </c>
       <c r="F57" s="33"/>
-      <c r="G57" s="35" t="e">
-        <f>+E57*C57*G55</f>
-        <v>#REF!</v>
+      <c r="G57" s="35">
+        <f>+E57*C57*E55</f>
+        <v>0</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="15"/>
@@ -3947,13 +3883,13 @@
         <v>0.1</v>
       </c>
       <c r="D58" s="37"/>
-      <c r="E58" s="106">
+      <c r="E58" s="105">
         <v>0</v>
       </c>
       <c r="F58" s="33"/>
-      <c r="G58" s="35" t="e">
-        <f>+E58*C58*G55</f>
-        <v>#REF!</v>
+      <c r="G58" s="35">
+        <f>+E58*C58*E55</f>
+        <v>0</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="15"/>
@@ -3972,7 +3908,7 @@
     </row>
     <row r="59" spans="2:33" ht="17">
       <c r="B59" s="74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C59" s="36"/>
       <c r="D59" s="37"/>
@@ -4030,28 +3966,25 @@
     </row>
     <row r="61" spans="2:33" ht="17">
       <c r="B61" s="70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
+      <c r="E61" s="58">
+        <f>+E55-G57-G58</f>
+        <v>0</v>
+      </c>
       <c r="F61" s="17"/>
-      <c r="G61" s="58" t="e">
-        <f>+G55-G57-G58</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H61" s="30"/>
+      <c r="H61" s="58">
+        <f>SUM(H12:H54)</f>
+        <v>0</v>
+      </c>
       <c r="I61" s="19"/>
-      <c r="J61" s="58" t="e">
-        <f>SUM(H12:H54)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K61" s="80"/>
+      <c r="K61" s="58">
+        <f>SUM(K12:K54)</f>
+        <v>0</v>
+      </c>
       <c r="L61" s="21"/>
-      <c r="M61" s="58" t="e">
-        <f>SUM(K12:K54)</f>
-        <v>#REF!</v>
-      </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
@@ -4109,11 +4042,11 @@
     </row>
     <row r="63" spans="2:33" ht="17">
       <c r="B63" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="83" t="e">
-        <f>+G61+J61+M61</f>
-        <v>#REF!</v>
+        <v>48</v>
+      </c>
+      <c r="C63" s="82">
+        <f>+E61+H61+K61</f>
+        <v>0</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="49"/>
@@ -4148,11 +4081,11 @@
     </row>
     <row r="64" spans="2:33" ht="17">
       <c r="B64" s="70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C64" s="53">
-        <f>6-COUNTIF(B3:B8,"Étudiant")+4</f>
-        <v>10</v>
+        <f>COUNTIF(B3:B8,"&lt;&gt;")</f>
+        <v>1</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="49"/>
@@ -4187,11 +4120,11 @@
     </row>
     <row r="65" spans="2:33" ht="17">
       <c r="B65" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" s="84" t="e">
+        <v>50</v>
+      </c>
+      <c r="C65" s="83">
         <f>+C63/C64</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="49"/>
@@ -4226,19 +4159,19 @@
     </row>
     <row r="66" spans="2:33" ht="15.75" customHeight="1">
       <c r="B66" s="75" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C66" s="54">
         <v>33</v>
       </c>
-      <c r="D66" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="D66" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="85"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="44"/>
       <c r="L66" s="43"/>
       <c r="M66" s="43"/>
@@ -4264,11 +4197,11 @@
     </row>
     <row r="67" spans="2:33" ht="17">
       <c r="B67" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="82" t="e">
+        <v>44</v>
+      </c>
+      <c r="C67" s="81">
         <f>+C65/C66*100</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="49"/>
@@ -4303,7 +4236,7 @@
     </row>
     <row r="68" spans="2:33" ht="15.75" customHeight="1">
       <c r="B68" s="75"/>
-      <c r="C68" s="81"/>
+      <c r="C68" s="80"/>
       <c r="D68" s="42"/>
       <c r="E68" s="42"/>
       <c r="F68" s="42"/>
@@ -28546,12 +28479,12 @@
       <c r="AF825" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/doc/grille-pointage.xlsx
+++ b/doc/grille-pointage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvanross/sources/log430/LOG430-STM/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755BA5CF-F831-184E-89F7-BE3849DF4FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC7E152-B332-FA40-8116-D4ABFB55A227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1160" windowWidth="38400" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Implementation" sheetId="5" r:id="rId1"/>
@@ -281,9 +281,6 @@
     <t xml:space="preserve"> OA1 - Faciliter le recrutement des nouveaux chargés de laboratoire.</t>
   </si>
   <si>
-    <t xml:space="preserve"> OA2 - Validez si le transport par autobus est toujours plus rapide, peu importe l'heure de la journée</t>
-  </si>
-  <si>
     <t>CU03 - Comparer l’impact écologique de divers trajets en autobus et en auto</t>
   </si>
   <si>
@@ -309,6 +306,9 @@
   </si>
   <si>
     <t>Nom étudiants</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OA2 - Promouvoir l'utilisation des données ouvertes</t>
   </si>
 </sst>
 </file>
@@ -1153,6 +1153,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1160,12 +1166,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1392,8 +1392,8 @@
   </sheetPr>
   <dimension ref="B1:AG825"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="3" spans="2:31" ht="23.25" customHeight="1">
       <c r="B3" s="96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="97">
         <v>1</v>
@@ -1716,14 +1716,14 @@
       <c r="C9" s="28"/>
       <c r="D9" s="29"/>
       <c r="E9" s="51"/>
-      <c r="F9" s="107" t="s">
+      <c r="F9" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="109"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="111"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1746,18 +1746,18 @@
       <c r="C10" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="110"/>
-      <c r="E10" s="111"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="110"/>
-      <c r="H10" s="111"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="108"/>
       <c r="I10" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="108"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="13" spans="2:31" ht="16">
       <c r="B13" s="91" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C13" s="14">
         <v>3</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="16" spans="2:31" ht="16">
       <c r="B16" s="90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="14">
         <v>3</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="17" spans="2:31" ht="16">
       <c r="B17" s="90" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="14">
         <v>3</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="18" spans="2:31" ht="16">
       <c r="B18" s="90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="14">
         <v>3</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="19" spans="2:31" ht="16">
       <c r="B19" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="14">
         <v>3</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="20" spans="2:31" ht="16">
       <c r="B20" s="90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="14">
         <v>3</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="21" spans="2:31" ht="16">
       <c r="B21" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="14">
         <v>3</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="22" spans="2:31" ht="16">
       <c r="B22" s="90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="14">
         <v>3</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="23" spans="2:31" ht="16">
       <c r="B23" s="90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="14">
         <v>3</v>

--- a/doc/grille-pointage.xlsx
+++ b/doc/grille-pointage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvanross/sources/log430/LOG430-STM/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC7E152-B332-FA40-8116-D4ABFB55A227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F7B190-8D3C-F045-9598-7BE4E00DAFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,9 +224,6 @@
     <t>Déduction total</t>
   </si>
   <si>
-    <t>S20223 - LOG430 Architecture logicielle</t>
-  </si>
-  <si>
     <t>Nombre total d'étudiant</t>
   </si>
   <si>
@@ -309,6 +306,9 @@
   </si>
   <si>
     <t xml:space="preserve"> OA2 - Promouvoir l'utilisation des données ouvertes</t>
+  </si>
+  <si>
+    <t>S20231 - LOG430 Architecture logicielle</t>
   </si>
 </sst>
 </file>
@@ -1392,8 +1392,8 @@
   </sheetPr>
   <dimension ref="B1:AG825"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1409,7 +1409,7 @@
   <sheetData>
     <row r="1" spans="2:31" ht="23.25" customHeight="1">
       <c r="B1" s="61" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -1442,16 +1442,16 @@
         <v>33</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="89" t="s">
-        <v>52</v>
-      </c>
       <c r="F2" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="11"/>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="3" spans="2:31" ht="23.25" customHeight="1">
       <c r="B3" s="96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="97">
         <v>1</v>
@@ -1717,7 +1717,7 @@
       <c r="D9" s="29"/>
       <c r="E9" s="51"/>
       <c r="F9" s="109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="110"/>
       <c r="H9" s="110"/>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="10" spans="2:31" ht="27" customHeight="1" thickBot="1">
       <c r="B10" s="64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="106" t="s">
         <v>35</v>
@@ -1781,7 +1781,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>0</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="12" spans="2:31" ht="16">
       <c r="B12" s="66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="38">
         <v>3</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="13" spans="2:31" ht="16">
       <c r="B13" s="91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="14">
         <v>3</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="14" spans="2:31" ht="16">
       <c r="B14" s="90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="14">
         <v>3</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="15" spans="2:31" ht="16">
       <c r="B15" s="90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="14">
         <v>3</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="16" spans="2:31" ht="16">
       <c r="B16" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="14">
         <v>3</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="17" spans="2:31" ht="16">
       <c r="B17" s="90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="14">
         <v>3</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="18" spans="2:31" ht="16">
       <c r="B18" s="90" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="14">
         <v>3</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="19" spans="2:31" ht="16">
       <c r="B19" s="90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="14">
         <v>3</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="20" spans="2:31" ht="16">
       <c r="B20" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="14">
         <v>3</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="21" spans="2:31" ht="16">
       <c r="B21" s="90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="14">
         <v>3</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="22" spans="2:31" ht="16">
       <c r="B22" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="14">
         <v>3</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="23" spans="2:31" ht="16">
       <c r="B23" s="90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="14">
         <v>3</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="51" spans="2:33" ht="17">
       <c r="B51" s="68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="99"/>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="61" spans="2:33" ht="17">
       <c r="B61" s="70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="17"/>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="63" spans="2:33" ht="17">
       <c r="B63" s="69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" s="82">
         <f>+E61+H61+K61</f>
@@ -4081,7 +4081,7 @@
     </row>
     <row r="64" spans="2:33" ht="17">
       <c r="B64" s="70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C64" s="53">
         <f>COUNTIF(B3:B8,"&lt;&gt;")</f>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="65" spans="2:33" ht="17">
       <c r="B65" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" s="83">
         <f>+C63/C64</f>
@@ -4159,13 +4159,13 @@
     </row>
     <row r="66" spans="2:33" ht="15.75" customHeight="1">
       <c r="B66" s="75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C66" s="54">
         <v>33</v>
       </c>
       <c r="D66" s="84" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E66" s="85"/>
       <c r="F66" s="85"/>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="67" spans="2:33" ht="17">
       <c r="B67" s="75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C67" s="81">
         <f>+C65/C66*100</f>

--- a/doc/grille-pointage.xlsx
+++ b/doc/grille-pointage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvanross/sources/log430/LOG430-STM/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F7B190-8D3C-F045-9598-7BE4E00DAFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB38D5D2-DA9B-C544-A872-824038C76A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>Total</t>
   </si>
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t>Note %</t>
-  </si>
-  <si>
-    <t>BONUS DE 10% POUR LIVRAISON TÔT</t>
   </si>
   <si>
     <t>Points total accumulé</t>
@@ -1393,7 +1390,7 @@
   <dimension ref="B1:AG825"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1409,7 +1406,7 @@
   <sheetData>
     <row r="1" spans="2:31" ht="23.25" customHeight="1">
       <c r="B1" s="61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -1442,13 +1439,13 @@
         <v>33</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="89" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" s="89" t="s">
-        <v>51</v>
       </c>
       <c r="F2" s="52" t="s">
         <v>44</v>
@@ -1477,7 +1474,7 @@
     </row>
     <row r="3" spans="2:31" ht="23.25" customHeight="1">
       <c r="B3" s="96" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="97">
         <v>1</v>
@@ -1717,7 +1714,7 @@
       <c r="D9" s="29"/>
       <c r="E9" s="51"/>
       <c r="F9" s="109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="110"/>
       <c r="H9" s="110"/>
@@ -1740,9 +1737,7 @@
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="2:31" ht="27" customHeight="1" thickBot="1">
-      <c r="B10" s="64" t="s">
-        <v>46</v>
-      </c>
+      <c r="B10" s="64"/>
       <c r="C10" s="106" t="s">
         <v>35</v>
       </c>
@@ -1827,7 +1822,7 @@
     </row>
     <row r="12" spans="2:31" ht="16">
       <c r="B12" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="38">
         <v>3</v>
@@ -1876,7 +1871,7 @@
     </row>
     <row r="13" spans="2:31" ht="16">
       <c r="B13" s="91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="14">
         <v>3</v>
@@ -1925,7 +1920,7 @@
     </row>
     <row r="14" spans="2:31" ht="16">
       <c r="B14" s="90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="14">
         <v>3</v>
@@ -1974,7 +1969,7 @@
     </row>
     <row r="15" spans="2:31" ht="16">
       <c r="B15" s="90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="14">
         <v>3</v>
@@ -2023,7 +2018,7 @@
     </row>
     <row r="16" spans="2:31" ht="16">
       <c r="B16" s="90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="14">
         <v>3</v>
@@ -2072,7 +2067,7 @@
     </row>
     <row r="17" spans="2:31" ht="16">
       <c r="B17" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="14">
         <v>3</v>
@@ -2121,7 +2116,7 @@
     </row>
     <row r="18" spans="2:31" ht="16">
       <c r="B18" s="90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="14">
         <v>3</v>
@@ -2170,7 +2165,7 @@
     </row>
     <row r="19" spans="2:31" ht="16">
       <c r="B19" s="90" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="14">
         <v>3</v>
@@ -2219,7 +2214,7 @@
     </row>
     <row r="20" spans="2:31" ht="16">
       <c r="B20" s="90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="14">
         <v>3</v>
@@ -2268,7 +2263,7 @@
     </row>
     <row r="21" spans="2:31" ht="16">
       <c r="B21" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="14">
         <v>3</v>
@@ -2317,7 +2312,7 @@
     </row>
     <row r="22" spans="2:31" ht="16">
       <c r="B22" s="90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="14">
         <v>3</v>
@@ -2366,7 +2361,7 @@
     </row>
     <row r="23" spans="2:31" ht="16">
       <c r="B23" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="14">
         <v>3</v>
@@ -3633,7 +3628,7 @@
     </row>
     <row r="51" spans="2:33" ht="17">
       <c r="B51" s="68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="99"/>
@@ -3966,7 +3961,7 @@
     </row>
     <row r="61" spans="2:33" ht="17">
       <c r="B61" s="70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="17"/>
@@ -4042,7 +4037,7 @@
     </row>
     <row r="63" spans="2:33" ht="17">
       <c r="B63" s="69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C63" s="82">
         <f>+E61+H61+K61</f>
@@ -4120,7 +4115,7 @@
     </row>
     <row r="65" spans="2:33" ht="17">
       <c r="B65" s="69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C65" s="83">
         <f>+C63/C64</f>
@@ -4159,13 +4154,13 @@
     </row>
     <row r="66" spans="2:33" ht="15.75" customHeight="1">
       <c r="B66" s="75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C66" s="54">
         <v>33</v>
       </c>
       <c r="D66" s="84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E66" s="85"/>
       <c r="F66" s="85"/>
